--- a/docs/OVW Sheets/OVMDemo-solution-listing.xlsx
+++ b/docs/OVW Sheets/OVMDemo-solution-listing.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arachapa\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ovwproject\OVWMigration\docs\OVW Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" firstSheet="34"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" firstSheet="37" activeTab="47"/>
   </bookViews>
   <sheets>
     <sheet name="en_au" sheetId="1" r:id="rId1"/>
@@ -769,13 +769,13 @@
     <t>solution-listing-var2</t>
   </si>
   <si>
-    <t>solution-listing-var6</t>
-  </si>
-  <si>
     <t>solution-listing-var8</t>
   </si>
   <si>
     <t>solution-listing-var11</t>
+  </si>
+  <si>
+    <t>solution-listing-var12</t>
   </si>
 </sst>
 </file>
@@ -1139,8 +1139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1172,7 +1172,7 @@
         <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D2" t="s">
         <v>41</v>
@@ -1200,7 +1200,7 @@
         <v>181</v>
       </c>
       <c r="C4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D4" t="s">
         <v>84</v>
@@ -1214,7 +1214,7 @@
         <v>230</v>
       </c>
       <c r="C5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D5" t="s">
         <v>84</v>
@@ -1238,7 +1238,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1270,7 +1270,7 @@
         <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D2" t="s">
         <v>41</v>
@@ -1298,7 +1298,7 @@
         <v>181</v>
       </c>
       <c r="C4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D4" t="s">
         <v>84</v>
@@ -1312,7 +1312,7 @@
         <v>230</v>
       </c>
       <c r="C5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D5" t="s">
         <v>84</v>
@@ -1335,7 +1335,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1367,7 +1367,7 @@
         <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D2" t="s">
         <v>41</v>
@@ -1395,7 +1395,7 @@
         <v>181</v>
       </c>
       <c r="C4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D4" t="s">
         <v>84</v>
@@ -1409,7 +1409,7 @@
         <v>230</v>
       </c>
       <c r="C5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D5" t="s">
         <v>84</v>
@@ -1432,7 +1432,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1464,7 +1464,7 @@
         <v>181</v>
       </c>
       <c r="C2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D2" t="s">
         <v>84</v>
@@ -1478,7 +1478,7 @@
         <v>230</v>
       </c>
       <c r="C3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D3" t="s">
         <v>84</v>
@@ -1499,7 +1499,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1531,7 +1531,7 @@
         <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D2" t="s">
         <v>41</v>
@@ -1559,7 +1559,7 @@
         <v>181</v>
       </c>
       <c r="C4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D4" t="s">
         <v>84</v>
@@ -1573,7 +1573,7 @@
         <v>230</v>
       </c>
       <c r="C5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D5" t="s">
         <v>84</v>
@@ -1596,7 +1596,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1628,7 +1628,7 @@
         <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D2" t="s">
         <v>41</v>
@@ -1656,7 +1656,7 @@
         <v>181</v>
       </c>
       <c r="C4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D4" t="s">
         <v>84</v>
@@ -1670,7 +1670,7 @@
         <v>230</v>
       </c>
       <c r="C5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D5" t="s">
         <v>84</v>
@@ -1725,7 +1725,7 @@
         <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D2" t="s">
         <v>41</v>
@@ -1753,7 +1753,7 @@
         <v>181</v>
       </c>
       <c r="C4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D4" t="s">
         <v>84</v>
@@ -1767,7 +1767,7 @@
         <v>230</v>
       </c>
       <c r="C5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D5" t="s">
         <v>84</v>
@@ -1822,7 +1822,7 @@
         <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D2" t="s">
         <v>41</v>
@@ -1850,7 +1850,7 @@
         <v>181</v>
       </c>
       <c r="C4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D4" t="s">
         <v>84</v>
@@ -1864,7 +1864,7 @@
         <v>230</v>
       </c>
       <c r="C5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D5" t="s">
         <v>84</v>
@@ -1919,7 +1919,7 @@
         <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D2" t="s">
         <v>41</v>
@@ -1947,7 +1947,7 @@
         <v>181</v>
       </c>
       <c r="C4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D4" t="s">
         <v>84</v>
@@ -1961,7 +1961,7 @@
         <v>230</v>
       </c>
       <c r="C5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D5" t="s">
         <v>84</v>
@@ -1984,7 +1984,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2016,7 +2016,7 @@
         <v>181</v>
       </c>
       <c r="C2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D2" t="s">
         <v>84</v>
@@ -2030,7 +2030,7 @@
         <v>230</v>
       </c>
       <c r="C3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D3" t="s">
         <v>84</v>
@@ -2051,7 +2051,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2083,7 +2083,7 @@
         <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D2" t="s">
         <v>41</v>
@@ -2111,7 +2111,7 @@
         <v>181</v>
       </c>
       <c r="C4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D4" t="s">
         <v>84</v>
@@ -2125,7 +2125,7 @@
         <v>230</v>
       </c>
       <c r="C5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D5" t="s">
         <v>84</v>
@@ -2148,7 +2148,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2180,7 +2180,7 @@
         <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D2" t="s">
         <v>41</v>
@@ -2208,7 +2208,7 @@
         <v>181</v>
       </c>
       <c r="C4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D4" t="s">
         <v>84</v>
@@ -2222,7 +2222,7 @@
         <v>230</v>
       </c>
       <c r="C5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D5" t="s">
         <v>84</v>
@@ -2277,7 +2277,7 @@
         <v>181</v>
       </c>
       <c r="C2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D2" t="s">
         <v>84</v>
@@ -2291,7 +2291,7 @@
         <v>230</v>
       </c>
       <c r="C3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D3" t="s">
         <v>84</v>
@@ -2312,7 +2312,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2344,7 +2344,7 @@
         <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D2" t="s">
         <v>41</v>
@@ -2372,7 +2372,7 @@
         <v>181</v>
       </c>
       <c r="C4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D4" t="s">
         <v>84</v>
@@ -2386,7 +2386,7 @@
         <v>230</v>
       </c>
       <c r="C5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D5" t="s">
         <v>84</v>
@@ -2409,7 +2409,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2441,7 +2441,7 @@
         <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D2" t="s">
         <v>41</v>
@@ -2469,7 +2469,7 @@
         <v>181</v>
       </c>
       <c r="C4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D4" t="s">
         <v>84</v>
@@ -2483,7 +2483,7 @@
         <v>230</v>
       </c>
       <c r="C5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D5" t="s">
         <v>84</v>
@@ -2506,7 +2506,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2538,7 +2538,7 @@
         <v>181</v>
       </c>
       <c r="C2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D2" t="s">
         <v>84</v>
@@ -2552,7 +2552,7 @@
         <v>230</v>
       </c>
       <c r="C3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D3" t="s">
         <v>84</v>
@@ -2573,7 +2573,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2605,7 +2605,7 @@
         <v>181</v>
       </c>
       <c r="C2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D2" t="s">
         <v>84</v>
@@ -2619,7 +2619,7 @@
         <v>230</v>
       </c>
       <c r="C3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D3" t="s">
         <v>84</v>
@@ -2640,7 +2640,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2672,7 +2672,7 @@
         <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D2" t="s">
         <v>41</v>
@@ -2700,7 +2700,7 @@
         <v>181</v>
       </c>
       <c r="C4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D4" t="s">
         <v>84</v>
@@ -2714,7 +2714,7 @@
         <v>230</v>
       </c>
       <c r="C5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D5" t="s">
         <v>84</v>
@@ -2737,7 +2737,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2769,7 +2769,7 @@
         <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D2" t="s">
         <v>41</v>
@@ -2797,7 +2797,7 @@
         <v>181</v>
       </c>
       <c r="C4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D4" t="s">
         <v>84</v>
@@ -2811,7 +2811,7 @@
         <v>230</v>
       </c>
       <c r="C5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D5" t="s">
         <v>84</v>
@@ -2834,7 +2834,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2866,7 +2866,7 @@
         <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D2" t="s">
         <v>41</v>
@@ -2894,7 +2894,7 @@
         <v>181</v>
       </c>
       <c r="C4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D4" t="s">
         <v>84</v>
@@ -2908,7 +2908,7 @@
         <v>230</v>
       </c>
       <c r="C5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D5" t="s">
         <v>84</v>
@@ -2931,7 +2931,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2963,7 +2963,7 @@
         <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D2" t="s">
         <v>41</v>
@@ -2991,7 +2991,7 @@
         <v>181</v>
       </c>
       <c r="C4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D4" t="s">
         <v>84</v>
@@ -3005,7 +3005,7 @@
         <v>230</v>
       </c>
       <c r="C5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D5" t="s">
         <v>84</v>
@@ -3028,7 +3028,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3060,7 +3060,7 @@
         <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D2" t="s">
         <v>41</v>
@@ -3088,7 +3088,7 @@
         <v>181</v>
       </c>
       <c r="C4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D4" t="s">
         <v>84</v>
@@ -3102,7 +3102,7 @@
         <v>230</v>
       </c>
       <c r="C5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D5" t="s">
         <v>84</v>
@@ -3125,7 +3125,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3157,7 +3157,7 @@
         <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D2" t="s">
         <v>41</v>
@@ -3185,7 +3185,7 @@
         <v>181</v>
       </c>
       <c r="C4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D4" t="s">
         <v>84</v>
@@ -3199,7 +3199,7 @@
         <v>230</v>
       </c>
       <c r="C5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D5" t="s">
         <v>84</v>
@@ -3222,7 +3222,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3254,7 +3254,7 @@
         <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D2" t="s">
         <v>41</v>
@@ -3282,7 +3282,7 @@
         <v>181</v>
       </c>
       <c r="C4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D4" t="s">
         <v>84</v>
@@ -3296,7 +3296,7 @@
         <v>230</v>
       </c>
       <c r="C5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D5" t="s">
         <v>84</v>
@@ -3319,7 +3319,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3351,7 +3351,7 @@
         <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D2" t="s">
         <v>41</v>
@@ -3379,7 +3379,7 @@
         <v>181</v>
       </c>
       <c r="C4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D4" t="s">
         <v>84</v>
@@ -3393,7 +3393,7 @@
         <v>230</v>
       </c>
       <c r="C5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D5" t="s">
         <v>84</v>
@@ -3416,7 +3416,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3448,7 +3448,7 @@
         <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D2" t="s">
         <v>41</v>
@@ -3476,7 +3476,7 @@
         <v>181</v>
       </c>
       <c r="C4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D4" t="s">
         <v>84</v>
@@ -3490,7 +3490,7 @@
         <v>230</v>
       </c>
       <c r="C5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D5" t="s">
         <v>84</v>
@@ -3513,7 +3513,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3545,7 +3545,7 @@
         <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D2" t="s">
         <v>41</v>
@@ -3573,7 +3573,7 @@
         <v>181</v>
       </c>
       <c r="C4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D4" t="s">
         <v>84</v>
@@ -3587,7 +3587,7 @@
         <v>230</v>
       </c>
       <c r="C5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D5" t="s">
         <v>84</v>
@@ -3610,7 +3610,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3642,7 +3642,7 @@
         <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D2" t="s">
         <v>41</v>
@@ -3670,7 +3670,7 @@
         <v>181</v>
       </c>
       <c r="C4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D4" t="s">
         <v>84</v>
@@ -3684,7 +3684,7 @@
         <v>230</v>
       </c>
       <c r="C5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D5" t="s">
         <v>84</v>
@@ -3707,7 +3707,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3739,7 +3739,7 @@
         <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D2" t="s">
         <v>41</v>
@@ -3767,7 +3767,7 @@
         <v>181</v>
       </c>
       <c r="C4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D4" t="s">
         <v>84</v>
@@ -3781,7 +3781,7 @@
         <v>230</v>
       </c>
       <c r="C5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D5" t="s">
         <v>84</v>
@@ -3836,7 +3836,7 @@
         <v>181</v>
       </c>
       <c r="C2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D2" t="s">
         <v>84</v>
@@ -3850,7 +3850,7 @@
         <v>230</v>
       </c>
       <c r="C3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D3" t="s">
         <v>84</v>
@@ -3871,7 +3871,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3903,7 +3903,7 @@
         <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D2" t="s">
         <v>41</v>
@@ -3931,7 +3931,7 @@
         <v>181</v>
       </c>
       <c r="C4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D4" t="s">
         <v>84</v>
@@ -3945,7 +3945,7 @@
         <v>230</v>
       </c>
       <c r="C5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D5" t="s">
         <v>84</v>
@@ -3968,7 +3968,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4000,7 +4000,7 @@
         <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D2" t="s">
         <v>41</v>
@@ -4028,7 +4028,7 @@
         <v>181</v>
       </c>
       <c r="C4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D4" t="s">
         <v>84</v>
@@ -4042,7 +4042,7 @@
         <v>230</v>
       </c>
       <c r="C5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D5" t="s">
         <v>84</v>
@@ -4065,7 +4065,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4097,7 +4097,7 @@
         <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D2" t="s">
         <v>41</v>
@@ -4125,7 +4125,7 @@
         <v>181</v>
       </c>
       <c r="C4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D4" t="s">
         <v>84</v>
@@ -4139,7 +4139,7 @@
         <v>230</v>
       </c>
       <c r="C5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D5" t="s">
         <v>84</v>
@@ -4162,7 +4162,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4194,7 +4194,7 @@
         <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D2" t="s">
         <v>41</v>
@@ -4222,7 +4222,7 @@
         <v>181</v>
       </c>
       <c r="C4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D4" t="s">
         <v>84</v>
@@ -4236,7 +4236,7 @@
         <v>230</v>
       </c>
       <c r="C5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D5" t="s">
         <v>84</v>
@@ -4259,7 +4259,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4291,7 +4291,7 @@
         <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D2" t="s">
         <v>41</v>
@@ -4319,7 +4319,7 @@
         <v>181</v>
       </c>
       <c r="C4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D4" t="s">
         <v>84</v>
@@ -4333,7 +4333,7 @@
         <v>230</v>
       </c>
       <c r="C5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D5" t="s">
         <v>84</v>
@@ -4356,7 +4356,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4388,7 +4388,7 @@
         <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D2" t="s">
         <v>41</v>
@@ -4416,7 +4416,7 @@
         <v>181</v>
       </c>
       <c r="C4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D4" t="s">
         <v>84</v>
@@ -4430,7 +4430,7 @@
         <v>230</v>
       </c>
       <c r="C5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D5" t="s">
         <v>84</v>
@@ -4453,7 +4453,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4485,7 +4485,7 @@
         <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D2" t="s">
         <v>41</v>
@@ -4513,7 +4513,7 @@
         <v>181</v>
       </c>
       <c r="C4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D4" t="s">
         <v>84</v>
@@ -4527,7 +4527,7 @@
         <v>230</v>
       </c>
       <c r="C5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D5" t="s">
         <v>84</v>
@@ -4550,7 +4550,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4582,7 +4582,7 @@
         <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D2" t="s">
         <v>41</v>
@@ -4610,7 +4610,7 @@
         <v>181</v>
       </c>
       <c r="C4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D4" t="s">
         <v>84</v>
@@ -4624,7 +4624,7 @@
         <v>230</v>
       </c>
       <c r="C5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D5" t="s">
         <v>84</v>
@@ -4647,7 +4647,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4679,7 +4679,7 @@
         <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D2" t="s">
         <v>41</v>
@@ -4707,7 +4707,7 @@
         <v>181</v>
       </c>
       <c r="C4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D4" t="s">
         <v>84</v>
@@ -4721,7 +4721,7 @@
         <v>230</v>
       </c>
       <c r="C5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D5" t="s">
         <v>84</v>
@@ -4744,7 +4744,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4776,7 +4776,7 @@
         <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D2" t="s">
         <v>41</v>
@@ -4804,7 +4804,7 @@
         <v>181</v>
       </c>
       <c r="C4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D4" t="s">
         <v>84</v>
@@ -4818,7 +4818,7 @@
         <v>230</v>
       </c>
       <c r="C5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D5" t="s">
         <v>84</v>
@@ -4841,7 +4841,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4873,7 +4873,7 @@
         <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D2" t="s">
         <v>41</v>
@@ -4901,7 +4901,7 @@
         <v>181</v>
       </c>
       <c r="C4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D4" t="s">
         <v>84</v>
@@ -4915,7 +4915,7 @@
         <v>230</v>
       </c>
       <c r="C5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D5" t="s">
         <v>84</v>
@@ -4938,7 +4938,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4970,7 +4970,7 @@
         <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D2" t="s">
         <v>41</v>
@@ -4998,7 +4998,7 @@
         <v>181</v>
       </c>
       <c r="C4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D4" t="s">
         <v>84</v>
@@ -5012,7 +5012,7 @@
         <v>230</v>
       </c>
       <c r="C5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D5" t="s">
         <v>84</v>
@@ -5034,7 +5034,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -5067,7 +5067,7 @@
         <v>181</v>
       </c>
       <c r="C2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D2" t="s">
         <v>84</v>
@@ -5081,7 +5081,7 @@
         <v>230</v>
       </c>
       <c r="C3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D3" t="s">
         <v>84</v>
@@ -5102,7 +5102,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5134,7 +5134,7 @@
         <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D2" t="s">
         <v>41</v>
@@ -5162,7 +5162,7 @@
         <v>181</v>
       </c>
       <c r="C4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D4" t="s">
         <v>84</v>
@@ -5176,7 +5176,7 @@
         <v>230</v>
       </c>
       <c r="C5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D5" t="s">
         <v>84</v>
@@ -5199,7 +5199,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5231,7 +5231,7 @@
         <v>181</v>
       </c>
       <c r="C2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D2" t="s">
         <v>84</v>
@@ -5245,7 +5245,7 @@
         <v>230</v>
       </c>
       <c r="C3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D3" t="s">
         <v>84</v>
@@ -5266,7 +5266,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5298,7 +5298,7 @@
         <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D2" t="s">
         <v>41</v>
@@ -5326,7 +5326,7 @@
         <v>181</v>
       </c>
       <c r="C4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D4" t="s">
         <v>84</v>
@@ -5340,7 +5340,7 @@
         <v>230</v>
       </c>
       <c r="C5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D5" t="s">
         <v>84</v>
@@ -5363,7 +5363,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5395,7 +5395,7 @@
         <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D2" t="s">
         <v>41</v>
@@ -5423,7 +5423,7 @@
         <v>181</v>
       </c>
       <c r="C4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D4" t="s">
         <v>84</v>
@@ -5437,7 +5437,7 @@
         <v>230</v>
       </c>
       <c r="C5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D5" t="s">
         <v>84</v>
@@ -5460,7 +5460,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5492,7 +5492,7 @@
         <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D2" t="s">
         <v>41</v>
@@ -5520,7 +5520,7 @@
         <v>181</v>
       </c>
       <c r="C4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D4" t="s">
         <v>84</v>
@@ -5534,7 +5534,7 @@
         <v>230</v>
       </c>
       <c r="C5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D5" t="s">
         <v>84</v>

--- a/docs/OVW Sheets/OVMDemo-solution-listing.xlsx
+++ b/docs/OVW Sheets/OVMDemo-solution-listing.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ovwproject\OVWMigration\docs\OVW Sheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OVW Migration Dec15\OVWMigration\docs\OVW Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" firstSheet="37" activeTab="47"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" firstSheet="5" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="en_au" sheetId="1" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="274">
   <si>
     <t>http://www.cisco.com/web/ANZ/products/security/solutions.html</t>
   </si>
@@ -776,6 +776,123 @@
   </si>
   <si>
     <t>solution-listing-var12</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/ANZ/netsol/sp/solutions-listing.html</t>
+  </si>
+  <si>
+    <t>service-provider</t>
+  </si>
+  <si>
+    <t>solution-listing-var9</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/AT/solutions/sp/solutions-listing.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/BE/solutions/sp/solutions-listing.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/BE/fr/solutions/sp/solutions-listing.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/BE/nl/solutions/sp/solutions-listing.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/BR/solucoes/sp/solutions-listing.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/CA/solutions/sp/solutions-listing.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/CA/solutions/sp/solutions-listing_fr.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/CH/de/solution/sp/solutions-listing.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/CH/fr/solutions/sp/solutions-listing.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/DE/solutions/sp/solutions-listing.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/DK/solutions/sp/solutions-listing.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/EA/solutions/sp/solutions-listing.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/EA/solutions/FR/sp/solutions-listing.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/ES/solutions/sp/solutions-listing.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/FR/solutions/sp/solutions-listing.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/HK/solutions/sp/solutions-listing.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/HK/solution_tc/sp/solutions-listing.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/ID/solutions/sp/solutions-listing.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/IN/solutions/sp/solutions-listing.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/IT/solutions/sp/solutions-listing.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/KR/networking/service_provider/solutions-listing.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/LA/soluciones/sp/solutions-listing.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/ME/solutions/sp/solutions-listing.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/ME/ar/solutions/sp/solutions-listing.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/NL/solutions/sp/solutions-listing.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/NO/solutions/sp/solutions-listing.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/PL/solutions/sp/solutions-listing.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/PT/solutions/sp/solutions-listing.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/RU/solutions/sp/solutions-listing.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/SE/solutions/sp/solutions-listing.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/SG/solutions/sp/solutions-listing.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/TH/solutions/sp/solutions-listing.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/TR/solutions/sp/solutions-listing.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/TW/solutions/sp/solutions-listing.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/cisco/web/UK/solutions/sp/solutions-listing.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/ZA/solutions/sp/solutions-listing.html</t>
   </si>
 </sst>
 </file>
@@ -1137,10 +1254,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B6" sqref="B6:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1220,6 +1337,20 @@
         <v>84</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B6" t="s">
+        <v>236</v>
+      </c>
+      <c r="C6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D6" t="s">
+        <v>84</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
@@ -1227,18 +1358,19 @@
     <hyperlink ref="A5" r:id="rId3"/>
     <hyperlink ref="A3" r:id="rId4"/>
     <hyperlink ref="A4" r:id="rId5"/>
+    <hyperlink ref="A6" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B6" sqref="B6:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1318,6 +1450,20 @@
         <v>84</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B6" t="s">
+        <v>236</v>
+      </c>
+      <c r="C6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D6" t="s">
+        <v>84</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
@@ -1325,6 +1471,7 @@
     <hyperlink ref="A3" r:id="rId3"/>
     <hyperlink ref="A4" r:id="rId4"/>
     <hyperlink ref="A5" r:id="rId5"/>
+    <hyperlink ref="A6" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1332,10 +1479,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B6" sqref="B6:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1415,6 +1562,20 @@
         <v>84</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B6" t="s">
+        <v>236</v>
+      </c>
+      <c r="C6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D6" t="s">
+        <v>84</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
@@ -1422,6 +1583,7 @@
     <hyperlink ref="A3" r:id="rId3"/>
     <hyperlink ref="A4" r:id="rId4"/>
     <hyperlink ref="A5" r:id="rId5"/>
+    <hyperlink ref="A6" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1496,10 +1658,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B6" sqref="B6:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1579,6 +1741,20 @@
         <v>84</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B6" t="s">
+        <v>236</v>
+      </c>
+      <c r="C6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D6" t="s">
+        <v>84</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
@@ -1586,6 +1762,7 @@
     <hyperlink ref="A3" r:id="rId3"/>
     <hyperlink ref="A4" r:id="rId4"/>
     <hyperlink ref="A5" r:id="rId5"/>
+    <hyperlink ref="A6" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1593,10 +1770,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B6" sqref="B6:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1676,6 +1853,20 @@
         <v>84</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B6" t="s">
+        <v>236</v>
+      </c>
+      <c r="C6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D6" t="s">
+        <v>84</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
@@ -1683,6 +1874,7 @@
     <hyperlink ref="A3" r:id="rId3"/>
     <hyperlink ref="A4" r:id="rId4"/>
     <hyperlink ref="A5" r:id="rId5"/>
+    <hyperlink ref="A6" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1690,10 +1882,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B6" sqref="B6:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1773,6 +1965,20 @@
         <v>84</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B6" t="s">
+        <v>236</v>
+      </c>
+      <c r="C6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D6" t="s">
+        <v>84</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
@@ -1780,6 +1986,7 @@
     <hyperlink ref="A3" r:id="rId3"/>
     <hyperlink ref="A4" r:id="rId4"/>
     <hyperlink ref="A5" r:id="rId5"/>
+    <hyperlink ref="A6" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1787,10 +1994,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B6" sqref="B6:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1870,6 +2077,20 @@
         <v>84</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B6" t="s">
+        <v>236</v>
+      </c>
+      <c r="C6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D6" t="s">
+        <v>84</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
@@ -1877,6 +2098,7 @@
     <hyperlink ref="A3" r:id="rId3"/>
     <hyperlink ref="A4" r:id="rId4"/>
     <hyperlink ref="A5" r:id="rId5"/>
+    <hyperlink ref="A6" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1884,10 +2106,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B6" sqref="B6:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1967,6 +2189,20 @@
         <v>84</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B6" t="s">
+        <v>236</v>
+      </c>
+      <c r="C6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D6" t="s">
+        <v>84</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
@@ -1974,6 +2210,7 @@
     <hyperlink ref="A3" r:id="rId3"/>
     <hyperlink ref="A4" r:id="rId4"/>
     <hyperlink ref="A5" r:id="rId5"/>
+    <hyperlink ref="A6" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2048,10 +2285,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B6" sqref="B6:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2131,6 +2368,20 @@
         <v>84</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B6" t="s">
+        <v>236</v>
+      </c>
+      <c r="C6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D6" t="s">
+        <v>84</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
@@ -2138,6 +2389,7 @@
     <hyperlink ref="A3" r:id="rId3"/>
     <hyperlink ref="A4" r:id="rId4"/>
     <hyperlink ref="A5" r:id="rId5"/>
+    <hyperlink ref="A6" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2145,10 +2397,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B6" sqref="B6:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2228,6 +2480,20 @@
         <v>84</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B6" t="s">
+        <v>236</v>
+      </c>
+      <c r="C6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D6" t="s">
+        <v>84</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
@@ -2235,6 +2501,7 @@
     <hyperlink ref="A3" r:id="rId3"/>
     <hyperlink ref="A4" r:id="rId4"/>
     <hyperlink ref="A5" r:id="rId5"/>
+    <hyperlink ref="A6" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2309,10 +2576,10 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B6" sqref="B6:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2392,6 +2659,20 @@
         <v>84</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B6" t="s">
+        <v>236</v>
+      </c>
+      <c r="C6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D6" t="s">
+        <v>84</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
@@ -2399,6 +2680,7 @@
     <hyperlink ref="A3" r:id="rId3"/>
     <hyperlink ref="A4" r:id="rId4"/>
     <hyperlink ref="A5" r:id="rId5"/>
+    <hyperlink ref="A6" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2406,10 +2688,10 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B6" sqref="B6:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2489,6 +2771,20 @@
         <v>84</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B6" t="s">
+        <v>236</v>
+      </c>
+      <c r="C6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D6" t="s">
+        <v>84</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
@@ -2496,6 +2792,7 @@
     <hyperlink ref="A3" r:id="rId3"/>
     <hyperlink ref="A4" r:id="rId4"/>
     <hyperlink ref="A5" r:id="rId5"/>
+    <hyperlink ref="A6" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2570,10 +2867,10 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B4" sqref="B4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2625,11 +2922,26 @@
         <v>84</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B4" t="s">
+        <v>236</v>
+      </c>
+      <c r="C4" t="s">
+        <v>237</v>
+      </c>
+      <c r="D4" t="s">
+        <v>84</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
     <hyperlink ref="A2" r:id="rId2"/>
     <hyperlink ref="A3" r:id="rId3"/>
+    <hyperlink ref="A4" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2640,7 +2952,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2734,10 +3046,10 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B6" sqref="B6:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2817,6 +3129,20 @@
         <v>84</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B6" t="s">
+        <v>236</v>
+      </c>
+      <c r="C6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D6" t="s">
+        <v>84</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
@@ -2824,6 +3150,7 @@
     <hyperlink ref="A3" r:id="rId3"/>
     <hyperlink ref="A4" r:id="rId4"/>
     <hyperlink ref="A5" r:id="rId5"/>
+    <hyperlink ref="A6" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2831,10 +3158,10 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B6" sqref="B6:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2914,6 +3241,20 @@
         <v>84</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B6" t="s">
+        <v>236</v>
+      </c>
+      <c r="C6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D6" t="s">
+        <v>84</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
@@ -2921,6 +3262,7 @@
     <hyperlink ref="A3" r:id="rId3"/>
     <hyperlink ref="A4" r:id="rId4"/>
     <hyperlink ref="A5" r:id="rId5"/>
+    <hyperlink ref="A6" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2928,15 +3270,15 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B6" sqref="B6:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="73.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="77.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -3011,6 +3353,20 @@
         <v>84</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B6" t="s">
+        <v>236</v>
+      </c>
+      <c r="C6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D6" t="s">
+        <v>84</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
@@ -3018,6 +3374,7 @@
     <hyperlink ref="A3" r:id="rId3"/>
     <hyperlink ref="A4" r:id="rId4"/>
     <hyperlink ref="A5" r:id="rId5"/>
+    <hyperlink ref="A6" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3025,10 +3382,10 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B6" sqref="B6:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3108,6 +3465,20 @@
         <v>84</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B6" t="s">
+        <v>236</v>
+      </c>
+      <c r="C6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D6" t="s">
+        <v>84</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
@@ -3115,6 +3486,7 @@
     <hyperlink ref="A3" r:id="rId3"/>
     <hyperlink ref="A4" r:id="rId4"/>
     <hyperlink ref="A5" r:id="rId5"/>
+    <hyperlink ref="A6" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3122,10 +3494,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3205,6 +3577,20 @@
         <v>84</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B6" t="s">
+        <v>236</v>
+      </c>
+      <c r="C6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D6" t="s">
+        <v>84</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
@@ -3212,6 +3598,7 @@
     <hyperlink ref="A3" r:id="rId3"/>
     <hyperlink ref="A4" r:id="rId4"/>
     <hyperlink ref="A5" r:id="rId5"/>
+    <hyperlink ref="A6" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3219,10 +3606,10 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B6" sqref="B6:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3302,6 +3689,20 @@
         <v>84</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B6" t="s">
+        <v>236</v>
+      </c>
+      <c r="C6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D6" t="s">
+        <v>84</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
@@ -3309,6 +3710,7 @@
     <hyperlink ref="A3" r:id="rId3"/>
     <hyperlink ref="A4" r:id="rId4"/>
     <hyperlink ref="A5" r:id="rId5"/>
+    <hyperlink ref="A6" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3316,10 +3718,10 @@
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B6" sqref="B6:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3399,6 +3801,20 @@
         <v>84</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B6" t="s">
+        <v>236</v>
+      </c>
+      <c r="C6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D6" t="s">
+        <v>84</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
@@ -3406,6 +3822,7 @@
     <hyperlink ref="A3" r:id="rId3"/>
     <hyperlink ref="A4" r:id="rId4"/>
     <hyperlink ref="A5" r:id="rId5"/>
+    <hyperlink ref="A6" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3413,10 +3830,10 @@
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B6" sqref="B6:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3496,6 +3913,20 @@
         <v>84</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B6" t="s">
+        <v>236</v>
+      </c>
+      <c r="C6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D6" t="s">
+        <v>84</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
@@ -3503,6 +3934,7 @@
     <hyperlink ref="A3" r:id="rId3"/>
     <hyperlink ref="A4" r:id="rId4"/>
     <hyperlink ref="A5" r:id="rId5"/>
+    <hyperlink ref="A6" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3510,10 +3942,10 @@
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B6" sqref="B6:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3593,6 +4025,20 @@
         <v>84</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B6" t="s">
+        <v>236</v>
+      </c>
+      <c r="C6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D6" t="s">
+        <v>84</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
@@ -3600,6 +4046,7 @@
     <hyperlink ref="A3" r:id="rId3"/>
     <hyperlink ref="A4" r:id="rId4"/>
     <hyperlink ref="A5" r:id="rId5"/>
+    <hyperlink ref="A6" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3607,10 +4054,10 @@
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B6" sqref="B6:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3690,6 +4137,20 @@
         <v>84</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B6" t="s">
+        <v>236</v>
+      </c>
+      <c r="C6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D6" t="s">
+        <v>84</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
@@ -3697,6 +4158,7 @@
     <hyperlink ref="A3" r:id="rId3"/>
     <hyperlink ref="A4" r:id="rId4"/>
     <hyperlink ref="A5" r:id="rId5"/>
+    <hyperlink ref="A6" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3704,10 +4166,10 @@
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B6" sqref="B6:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3787,6 +4249,20 @@
         <v>84</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B6" t="s">
+        <v>236</v>
+      </c>
+      <c r="C6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D6" t="s">
+        <v>84</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
@@ -3794,6 +4270,7 @@
     <hyperlink ref="A3" r:id="rId3"/>
     <hyperlink ref="A4" r:id="rId4"/>
     <hyperlink ref="A5" r:id="rId5"/>
+    <hyperlink ref="A6" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3868,10 +4345,10 @@
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B6" sqref="B6:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3951,6 +4428,20 @@
         <v>84</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B6" t="s">
+        <v>236</v>
+      </c>
+      <c r="C6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D6" t="s">
+        <v>84</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
@@ -3958,6 +4449,7 @@
     <hyperlink ref="A3" r:id="rId3"/>
     <hyperlink ref="A4" r:id="rId4"/>
     <hyperlink ref="A5" r:id="rId5"/>
+    <hyperlink ref="A6" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3965,10 +4457,10 @@
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B6" sqref="B6:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4048,6 +4540,20 @@
         <v>84</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B6" t="s">
+        <v>236</v>
+      </c>
+      <c r="C6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D6" t="s">
+        <v>84</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
@@ -4055,6 +4561,7 @@
     <hyperlink ref="A3" r:id="rId3"/>
     <hyperlink ref="A4" r:id="rId4"/>
     <hyperlink ref="A5" r:id="rId5"/>
+    <hyperlink ref="A6" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4062,10 +4569,10 @@
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B6" sqref="B6:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4145,6 +4652,20 @@
         <v>84</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B6" t="s">
+        <v>236</v>
+      </c>
+      <c r="C6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D6" t="s">
+        <v>84</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
@@ -4152,6 +4673,7 @@
     <hyperlink ref="A3" r:id="rId3"/>
     <hyperlink ref="A4" r:id="rId4"/>
     <hyperlink ref="A5" r:id="rId5"/>
+    <hyperlink ref="A6" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4159,10 +4681,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B6" sqref="B6:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4242,6 +4764,20 @@
         <v>84</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B6" t="s">
+        <v>236</v>
+      </c>
+      <c r="C6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D6" t="s">
+        <v>84</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
@@ -4249,6 +4785,7 @@
     <hyperlink ref="A3" r:id="rId3"/>
     <hyperlink ref="A4" r:id="rId4"/>
     <hyperlink ref="A5" r:id="rId5"/>
+    <hyperlink ref="A6" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4256,10 +4793,10 @@
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B6" sqref="B6:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4339,6 +4876,20 @@
         <v>84</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B6" t="s">
+        <v>236</v>
+      </c>
+      <c r="C6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D6" t="s">
+        <v>84</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
@@ -4346,6 +4897,7 @@
     <hyperlink ref="A3" r:id="rId3"/>
     <hyperlink ref="A4" r:id="rId4"/>
     <hyperlink ref="A5" r:id="rId5"/>
+    <hyperlink ref="A6" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4353,10 +4905,10 @@
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B6" sqref="B6:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4436,6 +4988,20 @@
         <v>84</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B6" t="s">
+        <v>236</v>
+      </c>
+      <c r="C6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D6" t="s">
+        <v>84</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
@@ -4443,6 +5009,7 @@
     <hyperlink ref="A3" r:id="rId3"/>
     <hyperlink ref="A4" r:id="rId4"/>
     <hyperlink ref="A5" r:id="rId5"/>
+    <hyperlink ref="A6" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4450,10 +5017,10 @@
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B6" sqref="B6:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4533,6 +5100,20 @@
         <v>84</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B6" t="s">
+        <v>236</v>
+      </c>
+      <c r="C6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D6" t="s">
+        <v>84</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
@@ -4540,6 +5121,7 @@
     <hyperlink ref="A3" r:id="rId3"/>
     <hyperlink ref="A4" r:id="rId4"/>
     <hyperlink ref="A5" r:id="rId5"/>
+    <hyperlink ref="A6" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4644,10 +5226,10 @@
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B6" sqref="B6:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4727,6 +5309,20 @@
         <v>84</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B6" t="s">
+        <v>236</v>
+      </c>
+      <c r="C6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D6" t="s">
+        <v>84</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
@@ -4734,6 +5330,7 @@
     <hyperlink ref="A3" r:id="rId3"/>
     <hyperlink ref="A4" r:id="rId4"/>
     <hyperlink ref="A5" r:id="rId5"/>
+    <hyperlink ref="A6" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4741,10 +5338,10 @@
 
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B6" sqref="B6:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4824,6 +5421,20 @@
         <v>84</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B6" t="s">
+        <v>236</v>
+      </c>
+      <c r="C6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D6" t="s">
+        <v>84</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
@@ -4831,6 +5442,7 @@
     <hyperlink ref="A3" r:id="rId3"/>
     <hyperlink ref="A4" r:id="rId4"/>
     <hyperlink ref="A5" r:id="rId5"/>
+    <hyperlink ref="A6" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5034,7 +5646,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -5099,10 +5711,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B6" sqref="B6:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5182,6 +5794,20 @@
         <v>84</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B6" t="s">
+        <v>236</v>
+      </c>
+      <c r="C6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D6" t="s">
+        <v>84</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
@@ -5189,6 +5815,7 @@
     <hyperlink ref="A3" r:id="rId3"/>
     <hyperlink ref="A4" r:id="rId4"/>
     <hyperlink ref="A5" r:id="rId5"/>
+    <hyperlink ref="A6" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5263,10 +5890,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5346,13 +5973,28 @@
         <v>84</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B6" t="s">
+        <v>236</v>
+      </c>
+      <c r="C6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D6" t="s">
+        <v>84</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
-    <hyperlink ref="A2" r:id="rId2"/>
-    <hyperlink ref="A3" r:id="rId3"/>
-    <hyperlink ref="A4" r:id="rId4"/>
-    <hyperlink ref="A5" r:id="rId5"/>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="A5" r:id="rId4"/>
+    <hyperlink ref="A6" r:id="rId5"/>
+    <hyperlink ref="A1" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5360,10 +6002,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B6" sqref="B6:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5443,6 +6085,20 @@
         <v>84</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B6" t="s">
+        <v>236</v>
+      </c>
+      <c r="C6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D6" t="s">
+        <v>84</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
@@ -5450,6 +6106,7 @@
     <hyperlink ref="A3" r:id="rId3"/>
     <hyperlink ref="A4" r:id="rId4"/>
     <hyperlink ref="A5" r:id="rId5"/>
+    <hyperlink ref="A6" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5457,10 +6114,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B6" sqref="B6:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5540,6 +6197,20 @@
         <v>84</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B6" t="s">
+        <v>236</v>
+      </c>
+      <c r="C6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D6" t="s">
+        <v>84</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
@@ -5547,6 +6218,7 @@
     <hyperlink ref="A3" r:id="rId3"/>
     <hyperlink ref="A4" r:id="rId4"/>
     <hyperlink ref="A5" r:id="rId5"/>
+    <hyperlink ref="A6" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/OVW Sheets/OVMDemo-solution-listing.xlsx
+++ b/docs/OVW Sheets/OVMDemo-solution-listing.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OVW Migration Dec15\OVWMigration\docs\OVW Sheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OVW Migration Dec 28\OVWMigration\docs\OVW Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" firstSheet="5" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
   </bookViews>
   <sheets>
     <sheet name="en_au" sheetId="1" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="235">
   <si>
     <t>http://www.cisco.com/web/ANZ/products/security/solutions.html</t>
   </si>
@@ -199,124 +199,7 @@
     <t>products</t>
   </si>
   <si>
-    <t>http://www.cisco.com/web/ANZ/products/unified_computing/solutions.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/AT/products/uc/solutions.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/BE/products/uc/solutions.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/BE/fr/products/uc/solutions.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/BE/nl/products/uc/solutions.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/BR/produtos/uc/solutions.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/CA/products/unified_computing/solutions.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/CA/products/unified_computing/solutions_fr.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/CH/de/products/uc/solutions.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/CH/fr/products/uc/solutions.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/DE/products/unified_computing/solutions.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/DK/products/uc/solutions.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/EA/products/uc/solutions.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/EA/products/FR/uc/solutions.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/ES/products/uc/solutions.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/FR/products/uc/solutions.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/HK/products/uc/solutions.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/HK/tc/products/uc/solutions.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/IL/products/uc/solutions.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/IN/products/unified_computing/solutions.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/IT/products/uc/solutions.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/KR/products/pc/unified_computing/solutions.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/LA/productos/uc/solutions.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/ME/products/uc/solutions.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/ME/ar/products/uc/solutions.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/NL/producten/uc/solutions.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/NO/products/uc/solutions.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/PL/products/uc/solutions.html</t>
-  </si>
-  <si>
     <t>http://www.cisco.com/web/PT/products/uc/solutions.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/RU/products/uc/solutions.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/SE/products/uc/solutions.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/SG/products/uc/solutions.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/TH/products/uc/solutions.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/TR/products/uc/solutions.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/TW/products/uc/solutions.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/UA/products/uc/solutions.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/cisco/web/UK/products/unified_computing/solutions.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/ZA/products/uc/solutions.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/CN/products/products_netsol/ucs/solutions.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/JP/product/hs/ucs/solutions.html</t>
   </si>
   <si>
     <t>servers-unified-computing</t>
@@ -1254,10 +1137,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1275,7 +1158,7 @@
         <v>40</v>
       </c>
       <c r="C1" t="s">
-        <v>231</v>
+        <v>192</v>
       </c>
       <c r="D1" t="s">
         <v>41</v>
@@ -1283,94 +1166,79 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C2" t="s">
-        <v>234</v>
+        <v>193</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="B3" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="C3" t="s">
-        <v>232</v>
+        <v>193</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="B4" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="C4" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
       <c r="D4" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>182</v>
+      <c r="A5" s="1" t="s">
+        <v>196</v>
       </c>
       <c r="B5" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C5" t="s">
-        <v>233</v>
+        <v>198</v>
       </c>
       <c r="D5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="B6" t="s">
-        <v>236</v>
-      </c>
-      <c r="C6" t="s">
-        <v>237</v>
-      </c>
-      <c r="D6" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
-    <hyperlink ref="A2" r:id="rId2"/>
-    <hyperlink ref="A5" r:id="rId3"/>
+    <hyperlink ref="A4" r:id="rId2"/>
+    <hyperlink ref="A2" r:id="rId3"/>
     <hyperlink ref="A3" r:id="rId4"/>
-    <hyperlink ref="A4" r:id="rId5"/>
-    <hyperlink ref="A6" r:id="rId6"/>
+    <hyperlink ref="A5" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:D6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1388,7 +1256,7 @@
         <v>40</v>
       </c>
       <c r="C1" t="s">
-        <v>231</v>
+        <v>192</v>
       </c>
       <c r="D1" t="s">
         <v>41</v>
@@ -1396,72 +1264,58 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C2" t="s">
-        <v>234</v>
+        <v>193</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B3" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="C3" t="s">
-        <v>232</v>
+        <v>193</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="B4" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="C4" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
       <c r="D4" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="B5" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C5" t="s">
-        <v>233</v>
+        <v>198</v>
       </c>
       <c r="D5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="B6" t="s">
-        <v>236</v>
-      </c>
-      <c r="C6" t="s">
-        <v>237</v>
-      </c>
-      <c r="D6" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1471,7 +1325,6 @@
     <hyperlink ref="A3" r:id="rId3"/>
     <hyperlink ref="A4" r:id="rId4"/>
     <hyperlink ref="A5" r:id="rId5"/>
-    <hyperlink ref="A6" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1479,10 +1332,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:D6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1500,7 +1353,7 @@
         <v>40</v>
       </c>
       <c r="C1" t="s">
-        <v>231</v>
+        <v>192</v>
       </c>
       <c r="D1" t="s">
         <v>41</v>
@@ -1508,72 +1361,58 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C2" t="s">
-        <v>234</v>
+        <v>193</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="B3" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="C3" t="s">
-        <v>232</v>
+        <v>193</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="B4" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="C4" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
       <c r="D4" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="B5" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C5" t="s">
-        <v>233</v>
+        <v>198</v>
       </c>
       <c r="D5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="B6" t="s">
-        <v>236</v>
-      </c>
-      <c r="C6" t="s">
-        <v>237</v>
-      </c>
-      <c r="D6" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1583,7 +1422,6 @@
     <hyperlink ref="A3" r:id="rId3"/>
     <hyperlink ref="A4" r:id="rId4"/>
     <hyperlink ref="A5" r:id="rId5"/>
-    <hyperlink ref="A6" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1594,7 +1432,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1606,44 +1444,44 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="B1" t="s">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="C1" t="s">
-        <v>232</v>
+        <v>193</v>
       </c>
       <c r="D1" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="B2" t="s">
-        <v>181</v>
+        <v>142</v>
       </c>
       <c r="C2" t="s">
-        <v>232</v>
+        <v>193</v>
       </c>
       <c r="D2" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>193</v>
+        <v>154</v>
       </c>
       <c r="B3" t="s">
-        <v>230</v>
+        <v>191</v>
       </c>
       <c r="C3" t="s">
-        <v>233</v>
+        <v>194</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1658,10 +1496,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:D6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1679,7 +1517,7 @@
         <v>40</v>
       </c>
       <c r="C1" t="s">
-        <v>231</v>
+        <v>192</v>
       </c>
       <c r="D1" t="s">
         <v>41</v>
@@ -1687,72 +1525,58 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C2" t="s">
-        <v>234</v>
+        <v>193</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>96</v>
+      <c r="A3" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="B3" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="C3" t="s">
-        <v>232</v>
+        <v>193</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>145</v>
+      <c r="A4" s="3" t="s">
+        <v>155</v>
       </c>
       <c r="B4" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="C4" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
       <c r="D4" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="B5" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C5" t="s">
-        <v>233</v>
+        <v>198</v>
       </c>
       <c r="D5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="B6" t="s">
-        <v>236</v>
-      </c>
-      <c r="C6" t="s">
-        <v>237</v>
-      </c>
-      <c r="D6" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1762,7 +1586,6 @@
     <hyperlink ref="A3" r:id="rId3"/>
     <hyperlink ref="A4" r:id="rId4"/>
     <hyperlink ref="A5" r:id="rId5"/>
-    <hyperlink ref="A6" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1770,10 +1593,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:D6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1791,7 +1614,7 @@
         <v>40</v>
       </c>
       <c r="C1" t="s">
-        <v>231</v>
+        <v>192</v>
       </c>
       <c r="D1" t="s">
         <v>41</v>
@@ -1799,72 +1622,58 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C2" t="s">
-        <v>234</v>
+        <v>193</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="B3" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="C3" t="s">
-        <v>232</v>
+        <v>193</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="B4" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="C4" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
       <c r="D4" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="B5" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C5" t="s">
-        <v>233</v>
+        <v>198</v>
       </c>
       <c r="D5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="B6" t="s">
-        <v>236</v>
-      </c>
-      <c r="C6" t="s">
-        <v>237</v>
-      </c>
-      <c r="D6" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1874,7 +1683,6 @@
     <hyperlink ref="A3" r:id="rId3"/>
     <hyperlink ref="A4" r:id="rId4"/>
     <hyperlink ref="A5" r:id="rId5"/>
-    <hyperlink ref="A6" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1882,10 +1690,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:D6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1903,7 +1711,7 @@
         <v>40</v>
       </c>
       <c r="C1" t="s">
-        <v>231</v>
+        <v>192</v>
       </c>
       <c r="D1" t="s">
         <v>41</v>
@@ -1911,72 +1719,58 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C2" t="s">
-        <v>234</v>
+        <v>193</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B3" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="C3" t="s">
-        <v>232</v>
+        <v>193</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="B4" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="C4" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
       <c r="D4" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="B5" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C5" t="s">
-        <v>233</v>
+        <v>198</v>
       </c>
       <c r="D5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="B6" t="s">
-        <v>236</v>
-      </c>
-      <c r="C6" t="s">
-        <v>237</v>
-      </c>
-      <c r="D6" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1986,7 +1780,6 @@
     <hyperlink ref="A3" r:id="rId3"/>
     <hyperlink ref="A4" r:id="rId4"/>
     <hyperlink ref="A5" r:id="rId5"/>
-    <hyperlink ref="A6" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1994,10 +1787,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:D6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2015,7 +1808,7 @@
         <v>40</v>
       </c>
       <c r="C1" t="s">
-        <v>231</v>
+        <v>192</v>
       </c>
       <c r="D1" t="s">
         <v>41</v>
@@ -2023,72 +1816,58 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C2" t="s">
-        <v>234</v>
+        <v>193</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="B3" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="C3" t="s">
-        <v>232</v>
+        <v>193</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="B4" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="C4" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
       <c r="D4" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B5" t="s">
         <v>197</v>
       </c>
-      <c r="B5" t="s">
-        <v>230</v>
-      </c>
       <c r="C5" t="s">
-        <v>233</v>
+        <v>198</v>
       </c>
       <c r="D5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="B6" t="s">
-        <v>236</v>
-      </c>
-      <c r="C6" t="s">
-        <v>237</v>
-      </c>
-      <c r="D6" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -2098,7 +1877,6 @@
     <hyperlink ref="A3" r:id="rId3"/>
     <hyperlink ref="A4" r:id="rId4"/>
     <hyperlink ref="A5" r:id="rId5"/>
-    <hyperlink ref="A6" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2106,10 +1884,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:D6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2127,7 +1905,7 @@
         <v>40</v>
       </c>
       <c r="C1" t="s">
-        <v>231</v>
+        <v>192</v>
       </c>
       <c r="D1" t="s">
         <v>41</v>
@@ -2135,72 +1913,58 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C2" t="s">
-        <v>234</v>
+        <v>193</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="B3" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="C3" t="s">
-        <v>232</v>
+        <v>193</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="B4" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="C4" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
       <c r="D4" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C5" t="s">
         <v>198</v>
       </c>
-      <c r="B5" t="s">
-        <v>230</v>
-      </c>
-      <c r="C5" t="s">
-        <v>233</v>
-      </c>
       <c r="D5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="B6" t="s">
-        <v>236</v>
-      </c>
-      <c r="C6" t="s">
-        <v>237</v>
-      </c>
-      <c r="D6" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -2210,7 +1974,6 @@
     <hyperlink ref="A3" r:id="rId3"/>
     <hyperlink ref="A4" r:id="rId4"/>
     <hyperlink ref="A5" r:id="rId5"/>
-    <hyperlink ref="A6" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2221,7 +1984,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2233,44 +1996,44 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="B1" t="s">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="C1" t="s">
-        <v>232</v>
+        <v>193</v>
       </c>
       <c r="D1" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>150</v>
+        <v>111</v>
       </c>
       <c r="B2" t="s">
-        <v>181</v>
+        <v>142</v>
       </c>
       <c r="C2" t="s">
-        <v>232</v>
+        <v>193</v>
       </c>
       <c r="D2" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>199</v>
+        <v>160</v>
       </c>
       <c r="B3" t="s">
-        <v>230</v>
+        <v>191</v>
       </c>
       <c r="C3" t="s">
-        <v>233</v>
+        <v>194</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -2285,10 +2048,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:D6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2306,7 +2069,7 @@
         <v>40</v>
       </c>
       <c r="C1" t="s">
-        <v>231</v>
+        <v>192</v>
       </c>
       <c r="D1" t="s">
         <v>41</v>
@@ -2314,72 +2077,58 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C2" t="s">
-        <v>234</v>
+        <v>193</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="B3" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="C3" t="s">
-        <v>232</v>
+        <v>193</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="B4" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="C4" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
       <c r="D4" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="B5" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C5" t="s">
-        <v>233</v>
+        <v>198</v>
       </c>
       <c r="D5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="B6" t="s">
-        <v>236</v>
-      </c>
-      <c r="C6" t="s">
-        <v>237</v>
-      </c>
-      <c r="D6" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -2389,7 +2138,6 @@
     <hyperlink ref="A3" r:id="rId3"/>
     <hyperlink ref="A4" r:id="rId4"/>
     <hyperlink ref="A5" r:id="rId5"/>
-    <hyperlink ref="A6" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2397,10 +2145,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:D6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2418,7 +2166,7 @@
         <v>40</v>
       </c>
       <c r="C1" t="s">
-        <v>231</v>
+        <v>192</v>
       </c>
       <c r="D1" t="s">
         <v>41</v>
@@ -2426,72 +2174,58 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C2" t="s">
-        <v>234</v>
+        <v>193</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>85</v>
+      <c r="A3" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="B3" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="C3" t="s">
-        <v>232</v>
+        <v>193</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>134</v>
+      <c r="A4" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="B4" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="C4" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
       <c r="D4" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>183</v>
+      <c r="A5" s="2" t="s">
+        <v>199</v>
       </c>
       <c r="B5" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C5" t="s">
-        <v>233</v>
+        <v>198</v>
       </c>
       <c r="D5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="B6" t="s">
-        <v>236</v>
-      </c>
-      <c r="C6" t="s">
-        <v>237</v>
-      </c>
-      <c r="D6" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -2501,7 +2235,6 @@
     <hyperlink ref="A3" r:id="rId3"/>
     <hyperlink ref="A4" r:id="rId4"/>
     <hyperlink ref="A5" r:id="rId5"/>
-    <hyperlink ref="A6" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2512,7 +2245,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2524,44 +2257,44 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="B1" t="s">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="C1" t="s">
-        <v>232</v>
+        <v>193</v>
       </c>
       <c r="D1" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>152</v>
+        <v>113</v>
       </c>
       <c r="B2" t="s">
-        <v>181</v>
+        <v>142</v>
       </c>
       <c r="C2" t="s">
-        <v>232</v>
+        <v>193</v>
       </c>
       <c r="D2" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>201</v>
+        <v>162</v>
       </c>
       <c r="B3" t="s">
-        <v>230</v>
+        <v>191</v>
       </c>
       <c r="C3" t="s">
-        <v>233</v>
+        <v>194</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -2576,10 +2309,10 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:D6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2597,7 +2330,7 @@
         <v>40</v>
       </c>
       <c r="C1" t="s">
-        <v>231</v>
+        <v>192</v>
       </c>
       <c r="D1" t="s">
         <v>41</v>
@@ -2605,72 +2338,58 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C2" t="s">
-        <v>234</v>
+        <v>193</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B3" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="C3" t="s">
-        <v>232</v>
+        <v>193</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="B4" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="C4" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
       <c r="D4" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>202</v>
+      <c r="A5" s="1" t="s">
+        <v>214</v>
       </c>
       <c r="B5" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C5" t="s">
-        <v>233</v>
+        <v>198</v>
       </c>
       <c r="D5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="B6" t="s">
-        <v>236</v>
-      </c>
-      <c r="C6" t="s">
-        <v>237</v>
-      </c>
-      <c r="D6" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -2680,7 +2399,6 @@
     <hyperlink ref="A3" r:id="rId3"/>
     <hyperlink ref="A4" r:id="rId4"/>
     <hyperlink ref="A5" r:id="rId5"/>
-    <hyperlink ref="A6" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2688,10 +2406,10 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:D6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2709,7 +2427,7 @@
         <v>40</v>
       </c>
       <c r="C1" t="s">
-        <v>231</v>
+        <v>192</v>
       </c>
       <c r="D1" t="s">
         <v>41</v>
@@ -2717,72 +2435,58 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C2" t="s">
-        <v>234</v>
+        <v>193</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="B3" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="C3" t="s">
-        <v>232</v>
+        <v>193</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="B4" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="C4" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
       <c r="D4" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>203</v>
+      <c r="A5" s="3" t="s">
+        <v>215</v>
       </c>
       <c r="B5" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C5" t="s">
-        <v>233</v>
+        <v>198</v>
       </c>
       <c r="D5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="B6" t="s">
-        <v>236</v>
-      </c>
-      <c r="C6" t="s">
-        <v>237</v>
-      </c>
-      <c r="D6" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -2792,7 +2496,6 @@
     <hyperlink ref="A3" r:id="rId3"/>
     <hyperlink ref="A4" r:id="rId4"/>
     <hyperlink ref="A5" r:id="rId5"/>
-    <hyperlink ref="A6" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2803,7 +2506,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2815,44 +2518,44 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="B1" t="s">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="C1" t="s">
-        <v>232</v>
+        <v>193</v>
       </c>
       <c r="D1" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>155</v>
+        <v>116</v>
       </c>
       <c r="B2" t="s">
-        <v>181</v>
+        <v>142</v>
       </c>
       <c r="C2" t="s">
-        <v>232</v>
+        <v>193</v>
       </c>
       <c r="D2" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>204</v>
+        <v>165</v>
       </c>
       <c r="B3" t="s">
-        <v>230</v>
+        <v>191</v>
       </c>
       <c r="C3" t="s">
-        <v>233</v>
+        <v>194</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -2870,7 +2573,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:D4"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2882,58 +2585,58 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>107</v>
+        <v>68</v>
       </c>
       <c r="B1" t="s">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="C1" t="s">
-        <v>232</v>
+        <v>193</v>
       </c>
       <c r="D1" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>156</v>
+        <v>117</v>
       </c>
       <c r="B2" t="s">
-        <v>181</v>
+        <v>142</v>
       </c>
       <c r="C2" t="s">
-        <v>232</v>
+        <v>193</v>
       </c>
       <c r="D2" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>205</v>
+        <v>166</v>
       </c>
       <c r="B3" t="s">
-        <v>230</v>
+        <v>191</v>
       </c>
       <c r="C3" t="s">
-        <v>233</v>
+        <v>194</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>255</v>
+        <v>216</v>
       </c>
       <c r="B4" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C4" t="s">
-        <v>237</v>
+        <v>198</v>
       </c>
       <c r="D4" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -2949,10 +2652,10 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2970,66 +2673,148 @@
         <v>40</v>
       </c>
       <c r="C1" t="s">
-        <v>231</v>
+        <v>192</v>
       </c>
       <c r="D1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>60</v>
+      <c r="A2" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C2" t="s">
-        <v>234</v>
+        <v>193</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="B3" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="C3" t="s">
-        <v>232</v>
+        <v>193</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="B4" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="C4" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
       <c r="D4" t="s">
-        <v>84</v>
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
+    <hyperlink ref="A4" r:id="rId4"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="70.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C4" t="s">
+        <v>194</v>
+      </c>
+      <c r="D4" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="B5" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C5" t="s">
-        <v>233</v>
+        <v>198</v>
       </c>
       <c r="D5" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -3044,124 +2829,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:D6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="70.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" t="s">
-        <v>231</v>
-      </c>
-      <c r="D1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C2" t="s">
-        <v>234</v>
-      </c>
-      <c r="D2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C3" t="s">
-        <v>232</v>
-      </c>
-      <c r="D3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="B4" t="s">
-        <v>181</v>
-      </c>
-      <c r="C4" t="s">
-        <v>232</v>
-      </c>
-      <c r="D4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="B5" t="s">
-        <v>230</v>
-      </c>
-      <c r="C5" t="s">
-        <v>233</v>
-      </c>
-      <c r="D5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="B6" t="s">
-        <v>236</v>
-      </c>
-      <c r="C6" t="s">
-        <v>237</v>
-      </c>
-      <c r="D6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
-    <hyperlink ref="A2" r:id="rId2"/>
-    <hyperlink ref="A3" r:id="rId3"/>
-    <hyperlink ref="A4" r:id="rId4"/>
-    <hyperlink ref="A5" r:id="rId5"/>
-    <hyperlink ref="A6" r:id="rId6"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:D6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3179,80 +2852,66 @@
         <v>40</v>
       </c>
       <c r="C1" t="s">
-        <v>231</v>
+        <v>192</v>
       </c>
       <c r="D1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>62</v>
+      <c r="A2" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C2" t="s">
-        <v>234</v>
+        <v>193</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="B3" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="C3" t="s">
-        <v>232</v>
+        <v>193</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="B4" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="C4" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
       <c r="D4" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>208</v>
+      <c r="A5" s="1" t="s">
+        <v>218</v>
       </c>
       <c r="B5" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C5" t="s">
-        <v>233</v>
+        <v>198</v>
       </c>
       <c r="D5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="B6" t="s">
-        <v>236</v>
-      </c>
-      <c r="C6" t="s">
-        <v>237</v>
-      </c>
-      <c r="D6" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -3262,7 +2921,6 @@
     <hyperlink ref="A3" r:id="rId3"/>
     <hyperlink ref="A4" r:id="rId4"/>
     <hyperlink ref="A5" r:id="rId5"/>
-    <hyperlink ref="A6" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3270,10 +2928,10 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:D6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3291,7 +2949,7 @@
         <v>40</v>
       </c>
       <c r="C1" t="s">
-        <v>231</v>
+        <v>192</v>
       </c>
       <c r="D1" t="s">
         <v>41</v>
@@ -3299,72 +2957,58 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C2" t="s">
-        <v>234</v>
+        <v>193</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="B3" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="C3" t="s">
-        <v>232</v>
+        <v>193</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="B4" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="C4" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
       <c r="D4" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="B5" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C5" t="s">
-        <v>233</v>
+        <v>198</v>
       </c>
       <c r="D5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="B6" t="s">
-        <v>236</v>
-      </c>
-      <c r="C6" t="s">
-        <v>237</v>
-      </c>
-      <c r="D6" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -3374,7 +3018,6 @@
     <hyperlink ref="A3" r:id="rId3"/>
     <hyperlink ref="A4" r:id="rId4"/>
     <hyperlink ref="A5" r:id="rId5"/>
-    <hyperlink ref="A6" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3382,10 +3025,10 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:D6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3403,7 +3046,7 @@
         <v>40</v>
       </c>
       <c r="C1" t="s">
-        <v>231</v>
+        <v>192</v>
       </c>
       <c r="D1" t="s">
         <v>41</v>
@@ -3411,72 +3054,58 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C2" t="s">
-        <v>234</v>
+        <v>193</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="B3" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="C3" t="s">
-        <v>232</v>
+        <v>193</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="B4" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="C4" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
       <c r="D4" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="B5" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C5" t="s">
-        <v>233</v>
+        <v>198</v>
       </c>
       <c r="D5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="B6" t="s">
-        <v>236</v>
-      </c>
-      <c r="C6" t="s">
-        <v>237</v>
-      </c>
-      <c r="D6" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -3486,7 +3115,6 @@
     <hyperlink ref="A3" r:id="rId3"/>
     <hyperlink ref="A4" r:id="rId4"/>
     <hyperlink ref="A5" r:id="rId5"/>
-    <hyperlink ref="A6" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3494,10 +3122,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3515,7 +3143,7 @@
         <v>40</v>
       </c>
       <c r="C1" t="s">
-        <v>231</v>
+        <v>192</v>
       </c>
       <c r="D1" t="s">
         <v>41</v>
@@ -3523,72 +3151,58 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C2" t="s">
-        <v>234</v>
+        <v>193</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="B3" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="C3" t="s">
-        <v>232</v>
+        <v>193</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="B4" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="C4" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
       <c r="D4" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>184</v>
+      <c r="A5" s="1" t="s">
+        <v>200</v>
       </c>
       <c r="B5" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C5" t="s">
-        <v>233</v>
+        <v>198</v>
       </c>
       <c r="D5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="B6" t="s">
-        <v>236</v>
-      </c>
-      <c r="C6" t="s">
-        <v>237</v>
-      </c>
-      <c r="D6" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -3598,7 +3212,6 @@
     <hyperlink ref="A3" r:id="rId3"/>
     <hyperlink ref="A4" r:id="rId4"/>
     <hyperlink ref="A5" r:id="rId5"/>
-    <hyperlink ref="A6" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3606,10 +3219,10 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:D6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3627,80 +3240,66 @@
         <v>40</v>
       </c>
       <c r="C1" t="s">
-        <v>231</v>
+        <v>192</v>
       </c>
       <c r="D1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>65</v>
+      <c r="A2" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C2" t="s">
-        <v>234</v>
+        <v>193</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="B3" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="C3" t="s">
-        <v>232</v>
+        <v>193</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="B4" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="C4" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
       <c r="D4" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>211</v>
+      <c r="A5" s="1" t="s">
+        <v>221</v>
       </c>
       <c r="B5" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C5" t="s">
-        <v>233</v>
+        <v>198</v>
       </c>
       <c r="D5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="B6" t="s">
-        <v>236</v>
-      </c>
-      <c r="C6" t="s">
-        <v>237</v>
-      </c>
-      <c r="D6" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -3710,7 +3309,6 @@
     <hyperlink ref="A3" r:id="rId3"/>
     <hyperlink ref="A4" r:id="rId4"/>
     <hyperlink ref="A5" r:id="rId5"/>
-    <hyperlink ref="A6" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3718,10 +3316,10 @@
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:D6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3739,80 +3337,66 @@
         <v>40</v>
       </c>
       <c r="C1" t="s">
-        <v>231</v>
+        <v>192</v>
       </c>
       <c r="D1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>66</v>
+      <c r="A2" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C2" t="s">
-        <v>234</v>
+        <v>193</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="B3" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="C3" t="s">
-        <v>232</v>
+        <v>193</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="B4" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="C4" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
       <c r="D4" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>212</v>
+      <c r="A5" s="1" t="s">
+        <v>222</v>
       </c>
       <c r="B5" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C5" t="s">
-        <v>233</v>
+        <v>198</v>
       </c>
       <c r="D5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="B6" t="s">
-        <v>236</v>
-      </c>
-      <c r="C6" t="s">
-        <v>237</v>
-      </c>
-      <c r="D6" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -3822,7 +3406,6 @@
     <hyperlink ref="A3" r:id="rId3"/>
     <hyperlink ref="A4" r:id="rId4"/>
     <hyperlink ref="A5" r:id="rId5"/>
-    <hyperlink ref="A6" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3830,10 +3413,10 @@
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:D6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3851,7 +3434,7 @@
         <v>40</v>
       </c>
       <c r="C1" t="s">
-        <v>231</v>
+        <v>192</v>
       </c>
       <c r="D1" t="s">
         <v>41</v>
@@ -3859,72 +3442,58 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C2" t="s">
-        <v>234</v>
+        <v>193</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="B3" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="C3" t="s">
-        <v>232</v>
+        <v>193</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="B4" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="C4" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
       <c r="D4" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>213</v>
+      <c r="A5" s="3" t="s">
+        <v>223</v>
       </c>
       <c r="B5" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C5" t="s">
-        <v>233</v>
+        <v>198</v>
       </c>
       <c r="D5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="B6" t="s">
-        <v>236</v>
-      </c>
-      <c r="C6" t="s">
-        <v>237</v>
-      </c>
-      <c r="D6" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -3934,7 +3503,6 @@
     <hyperlink ref="A3" r:id="rId3"/>
     <hyperlink ref="A4" r:id="rId4"/>
     <hyperlink ref="A5" r:id="rId5"/>
-    <hyperlink ref="A6" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3942,10 +3510,10 @@
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:D6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3963,7 +3531,7 @@
         <v>40</v>
       </c>
       <c r="C1" t="s">
-        <v>231</v>
+        <v>192</v>
       </c>
       <c r="D1" t="s">
         <v>41</v>
@@ -3971,72 +3539,58 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C2" t="s">
-        <v>234</v>
+        <v>193</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="B3" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="C3" t="s">
-        <v>232</v>
+        <v>193</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="B4" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="C4" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
       <c r="D4" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="B5" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C5" t="s">
-        <v>233</v>
+        <v>198</v>
       </c>
       <c r="D5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="B6" t="s">
-        <v>236</v>
-      </c>
-      <c r="C6" t="s">
-        <v>237</v>
-      </c>
-      <c r="D6" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -4046,7 +3600,6 @@
     <hyperlink ref="A3" r:id="rId3"/>
     <hyperlink ref="A4" r:id="rId4"/>
     <hyperlink ref="A5" r:id="rId5"/>
-    <hyperlink ref="A6" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4054,10 +3607,10 @@
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:D6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4075,7 +3628,7 @@
         <v>40</v>
       </c>
       <c r="C1" t="s">
-        <v>231</v>
+        <v>192</v>
       </c>
       <c r="D1" t="s">
         <v>41</v>
@@ -4083,72 +3636,58 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C2" t="s">
-        <v>234</v>
+        <v>193</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="B3" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="C3" t="s">
-        <v>232</v>
+        <v>193</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>166</v>
+      <c r="A4" s="2" t="s">
+        <v>176</v>
       </c>
       <c r="B4" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="C4" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
       <c r="D4" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>215</v>
+      <c r="A5" s="1" t="s">
+        <v>225</v>
       </c>
       <c r="B5" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C5" t="s">
-        <v>233</v>
+        <v>198</v>
       </c>
       <c r="D5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="B6" t="s">
-        <v>236</v>
-      </c>
-      <c r="C6" t="s">
-        <v>237</v>
-      </c>
-      <c r="D6" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -4158,7 +3697,6 @@
     <hyperlink ref="A3" r:id="rId3"/>
     <hyperlink ref="A4" r:id="rId4"/>
     <hyperlink ref="A5" r:id="rId5"/>
-    <hyperlink ref="A6" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4169,7 +3707,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:D6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4187,7 +3725,7 @@
         <v>40</v>
       </c>
       <c r="C1" t="s">
-        <v>231</v>
+        <v>192</v>
       </c>
       <c r="D1" t="s">
         <v>41</v>
@@ -4195,13 +3733,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>234</v>
+        <v>195</v>
       </c>
       <c r="D2" t="s">
         <v>41</v>
@@ -4209,58 +3747,58 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>118</v>
+        <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="C3" t="s">
-        <v>232</v>
+        <v>193</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>167</v>
+        <v>128</v>
       </c>
       <c r="B4" t="s">
-        <v>181</v>
+        <v>142</v>
       </c>
       <c r="C4" t="s">
-        <v>232</v>
+        <v>193</v>
       </c>
       <c r="D4" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>216</v>
+        <v>177</v>
       </c>
       <c r="B5" t="s">
-        <v>230</v>
+        <v>191</v>
       </c>
       <c r="C5" t="s">
-        <v>233</v>
+        <v>194</v>
       </c>
       <c r="D5" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>265</v>
+        <v>226</v>
       </c>
       <c r="B6" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C6" t="s">
-        <v>237</v>
+        <v>198</v>
       </c>
       <c r="D6" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -4281,7 +3819,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4293,44 +3831,44 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="B1" t="s">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="C1" t="s">
-        <v>232</v>
+        <v>193</v>
       </c>
       <c r="D1" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>168</v>
+        <v>129</v>
       </c>
       <c r="B2" t="s">
-        <v>181</v>
+        <v>142</v>
       </c>
       <c r="C2" t="s">
-        <v>232</v>
+        <v>193</v>
       </c>
       <c r="D2" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>217</v>
+        <v>178</v>
       </c>
       <c r="B3" t="s">
-        <v>230</v>
+        <v>191</v>
       </c>
       <c r="C3" t="s">
-        <v>233</v>
+        <v>194</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -4345,15 +3883,15 @@
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:D6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="74.42578125" customWidth="1"/>
+    <col min="1" max="1" width="66" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -4366,7 +3904,7 @@
         <v>40</v>
       </c>
       <c r="C1" t="s">
-        <v>231</v>
+        <v>192</v>
       </c>
       <c r="D1" t="s">
         <v>41</v>
@@ -4374,72 +3912,58 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C2" t="s">
-        <v>234</v>
+        <v>193</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="B3" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="C3" t="s">
-        <v>232</v>
+        <v>193</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="B4" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="C4" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
       <c r="D4" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>218</v>
+      <c r="A5" s="1" t="s">
+        <v>227</v>
       </c>
       <c r="B5" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C5" t="s">
-        <v>233</v>
+        <v>198</v>
       </c>
       <c r="D5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="B6" t="s">
-        <v>236</v>
-      </c>
-      <c r="C6" t="s">
-        <v>237</v>
-      </c>
-      <c r="D6" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -4449,7 +3973,6 @@
     <hyperlink ref="A3" r:id="rId3"/>
     <hyperlink ref="A4" r:id="rId4"/>
     <hyperlink ref="A5" r:id="rId5"/>
-    <hyperlink ref="A6" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4457,10 +3980,10 @@
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:D6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4478,80 +4001,66 @@
         <v>40</v>
       </c>
       <c r="C1" t="s">
-        <v>231</v>
+        <v>192</v>
       </c>
       <c r="D1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>72</v>
+      <c r="A2" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C2" t="s">
-        <v>234</v>
+        <v>193</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="B3" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="C3" t="s">
-        <v>232</v>
+        <v>193</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="B4" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="C4" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
       <c r="D4" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="B5" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C5" t="s">
-        <v>233</v>
+        <v>198</v>
       </c>
       <c r="D5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="B6" t="s">
-        <v>236</v>
-      </c>
-      <c r="C6" t="s">
-        <v>237</v>
-      </c>
-      <c r="D6" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -4561,7 +4070,6 @@
     <hyperlink ref="A3" r:id="rId3"/>
     <hyperlink ref="A4" r:id="rId4"/>
     <hyperlink ref="A5" r:id="rId5"/>
-    <hyperlink ref="A6" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4569,10 +4077,10 @@
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:D6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4590,7 +4098,7 @@
         <v>40</v>
       </c>
       <c r="C1" t="s">
-        <v>231</v>
+        <v>192</v>
       </c>
       <c r="D1" t="s">
         <v>41</v>
@@ -4598,72 +4106,58 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C2" t="s">
-        <v>234</v>
+        <v>193</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="B3" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="C3" t="s">
-        <v>232</v>
+        <v>193</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="B4" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="C4" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
       <c r="D4" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="B5" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C5" t="s">
-        <v>233</v>
+        <v>198</v>
       </c>
       <c r="D5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="B6" t="s">
-        <v>236</v>
-      </c>
-      <c r="C6" t="s">
-        <v>237</v>
-      </c>
-      <c r="D6" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -4673,7 +4167,6 @@
     <hyperlink ref="A3" r:id="rId3"/>
     <hyperlink ref="A4" r:id="rId4"/>
     <hyperlink ref="A5" r:id="rId5"/>
-    <hyperlink ref="A6" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4681,10 +4174,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:D6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4702,80 +4195,66 @@
         <v>40</v>
       </c>
       <c r="C1" t="s">
-        <v>231</v>
+        <v>192</v>
       </c>
       <c r="D1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>45</v>
+      <c r="A2" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C2" t="s">
-        <v>234</v>
+        <v>193</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>87</v>
+      <c r="A3" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="B3" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="C3" t="s">
-        <v>232</v>
+        <v>193</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>136</v>
+      <c r="A4" s="1" t="s">
+        <v>146</v>
       </c>
       <c r="B4" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="C4" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
       <c r="D4" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="B5" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C5" t="s">
-        <v>233</v>
+        <v>198</v>
       </c>
       <c r="D5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="B6" t="s">
-        <v>236</v>
-      </c>
-      <c r="C6" t="s">
-        <v>237</v>
-      </c>
-      <c r="D6" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -4785,7 +4264,6 @@
     <hyperlink ref="A3" r:id="rId3"/>
     <hyperlink ref="A4" r:id="rId4"/>
     <hyperlink ref="A5" r:id="rId5"/>
-    <hyperlink ref="A6" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4793,10 +4271,10 @@
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:D6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4814,7 +4292,7 @@
         <v>40</v>
       </c>
       <c r="C1" t="s">
-        <v>231</v>
+        <v>192</v>
       </c>
       <c r="D1" t="s">
         <v>41</v>
@@ -4822,72 +4300,58 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C2" t="s">
-        <v>234</v>
+        <v>193</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="B3" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="C3" t="s">
-        <v>232</v>
+        <v>193</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="B4" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="C4" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
       <c r="D4" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>221</v>
+      <c r="A5" s="1" t="s">
+        <v>230</v>
       </c>
       <c r="B5" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C5" t="s">
-        <v>233</v>
+        <v>198</v>
       </c>
       <c r="D5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="B6" t="s">
-        <v>236</v>
-      </c>
-      <c r="C6" t="s">
-        <v>237</v>
-      </c>
-      <c r="D6" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -4897,7 +4361,6 @@
     <hyperlink ref="A3" r:id="rId3"/>
     <hyperlink ref="A4" r:id="rId4"/>
     <hyperlink ref="A5" r:id="rId5"/>
-    <hyperlink ref="A6" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4905,10 +4368,10 @@
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:D6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4926,7 +4389,7 @@
         <v>40</v>
       </c>
       <c r="C1" t="s">
-        <v>231</v>
+        <v>192</v>
       </c>
       <c r="D1" t="s">
         <v>41</v>
@@ -4934,72 +4397,58 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C2" t="s">
-        <v>234</v>
+        <v>193</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="B3" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="C3" t="s">
-        <v>232</v>
+        <v>193</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="B4" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="C4" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
       <c r="D4" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="B5" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C5" t="s">
-        <v>233</v>
+        <v>198</v>
       </c>
       <c r="D5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="B6" t="s">
-        <v>236</v>
-      </c>
-      <c r="C6" t="s">
-        <v>237</v>
-      </c>
-      <c r="D6" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -5009,7 +4458,6 @@
     <hyperlink ref="A3" r:id="rId3"/>
     <hyperlink ref="A4" r:id="rId4"/>
     <hyperlink ref="A5" r:id="rId5"/>
-    <hyperlink ref="A6" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5017,10 +4465,10 @@
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:D6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5038,80 +4486,66 @@
         <v>40</v>
       </c>
       <c r="C1" t="s">
-        <v>231</v>
+        <v>192</v>
       </c>
       <c r="D1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>76</v>
+      <c r="A2" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C2" t="s">
-        <v>234</v>
+        <v>193</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="B3" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="C3" t="s">
-        <v>232</v>
+        <v>193</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="B4" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="C4" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
       <c r="D4" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="B5" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C5" t="s">
-        <v>233</v>
+        <v>198</v>
       </c>
       <c r="D5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="B6" t="s">
-        <v>236</v>
-      </c>
-      <c r="C6" t="s">
-        <v>237</v>
-      </c>
-      <c r="D6" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -5121,7 +4555,6 @@
     <hyperlink ref="A3" r:id="rId3"/>
     <hyperlink ref="A4" r:id="rId4"/>
     <hyperlink ref="A5" r:id="rId5"/>
-    <hyperlink ref="A6" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5129,10 +4562,10 @@
 
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5150,66 +4583,148 @@
         <v>40</v>
       </c>
       <c r="C1" t="s">
-        <v>231</v>
+        <v>192</v>
       </c>
       <c r="D1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>77</v>
+      <c r="A2" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C2" t="s">
-        <v>234</v>
+        <v>193</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="B3" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="C3" t="s">
-        <v>232</v>
+        <v>193</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="B4" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="C4" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
       <c r="D4" t="s">
-        <v>84</v>
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
+    <hyperlink ref="A4" r:id="rId4"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="76.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C4" t="s">
+        <v>194</v>
+      </c>
+      <c r="D4" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="B5" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C5" t="s">
-        <v>233</v>
+        <v>198</v>
       </c>
       <c r="D5" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -5224,124 +4739,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:D6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="76.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" t="s">
-        <v>231</v>
-      </c>
-      <c r="D1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C2" t="s">
-        <v>234</v>
-      </c>
-      <c r="D2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C3" t="s">
-        <v>232</v>
-      </c>
-      <c r="D3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B4" t="s">
-        <v>181</v>
-      </c>
-      <c r="C4" t="s">
-        <v>232</v>
-      </c>
-      <c r="D4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B5" t="s">
-        <v>230</v>
-      </c>
-      <c r="C5" t="s">
-        <v>233</v>
-      </c>
-      <c r="D5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="B6" t="s">
-        <v>236</v>
-      </c>
-      <c r="C6" t="s">
-        <v>237</v>
-      </c>
-      <c r="D6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
-    <hyperlink ref="A2" r:id="rId2"/>
-    <hyperlink ref="A3" r:id="rId3"/>
-    <hyperlink ref="A4" r:id="rId4"/>
-    <hyperlink ref="A5" r:id="rId5"/>
-    <hyperlink ref="A6" r:id="rId6"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:D6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5359,7 +4762,7 @@
         <v>40</v>
       </c>
       <c r="C1" t="s">
-        <v>231</v>
+        <v>192</v>
       </c>
       <c r="D1" t="s">
         <v>41</v>
@@ -5367,72 +4770,58 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C2" t="s">
-        <v>234</v>
+        <v>193</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="B3" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="C3" t="s">
-        <v>232</v>
+        <v>193</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="B4" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="C4" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
       <c r="D4" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="B5" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C5" t="s">
-        <v>233</v>
+        <v>198</v>
       </c>
       <c r="D5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="B6" t="s">
-        <v>236</v>
-      </c>
-      <c r="C6" t="s">
-        <v>237</v>
-      </c>
-      <c r="D6" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -5442,7 +4831,6 @@
     <hyperlink ref="A3" r:id="rId3"/>
     <hyperlink ref="A4" r:id="rId4"/>
     <hyperlink ref="A5" r:id="rId5"/>
-    <hyperlink ref="A6" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5450,10 +4838,10 @@
 
 <file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5471,7 +4859,7 @@
         <v>40</v>
       </c>
       <c r="C1" t="s">
-        <v>231</v>
+        <v>192</v>
       </c>
       <c r="D1" t="s">
         <v>41</v>
@@ -5479,58 +4867,289 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C2" t="s">
-        <v>234</v>
+        <v>193</v>
       </c>
       <c r="D2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C4" t="s">
+        <v>194</v>
+      </c>
+      <c r="D4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
+    <hyperlink ref="A4" r:id="rId4"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="67.28515625" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D1" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C4" t="s">
+        <v>194</v>
+      </c>
+      <c r="D4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
+    <hyperlink ref="A4" r:id="rId4"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="68.85546875" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>129</v>
+        <v>190</v>
       </c>
       <c r="B3" t="s">
-        <v>132</v>
+        <v>191</v>
       </c>
       <c r="C3" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="68.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D3" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>178</v>
+      <c r="A4" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="B4" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="C4" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
       <c r="D4" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>227</v>
+      <c r="A5" s="2" t="s">
+        <v>202</v>
       </c>
       <c r="B5" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C5" t="s">
-        <v>233</v>
+        <v>198</v>
       </c>
       <c r="D5" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -5545,30 +5164,194 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="66" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="67.28515625" customWidth="1"/>
+    <col min="1" max="1" width="65.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C4" t="s">
+        <v>194</v>
+      </c>
+      <c r="D4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C5" t="s">
+        <v>198</v>
+      </c>
+      <c r="D5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="A5" r:id="rId4"/>
+    <hyperlink ref="A1" r:id="rId5"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="70.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
         <v>40</v>
       </c>
       <c r="C1" t="s">
-        <v>231</v>
+        <v>192</v>
       </c>
       <c r="D1" t="s">
         <v>41</v>
@@ -5576,58 +5359,58 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C2" t="s">
-        <v>234</v>
+        <v>193</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="B3" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="C3" t="s">
-        <v>232</v>
+        <v>193</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>179</v>
+        <v>150</v>
       </c>
       <c r="B4" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="C4" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
       <c r="D4" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>228</v>
+      <c r="A5" s="1" t="s">
+        <v>204</v>
       </c>
       <c r="B5" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C5" t="s">
-        <v>233</v>
+        <v>198</v>
       </c>
       <c r="D5" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -5642,482 +5425,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="68.85546875" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C1" t="s">
-        <v>232</v>
-      </c>
-      <c r="D1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C2" t="s">
-        <v>232</v>
-      </c>
-      <c r="D2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="B3" t="s">
-        <v>230</v>
-      </c>
-      <c r="C3" t="s">
-        <v>233</v>
-      </c>
-      <c r="D3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
-    <hyperlink ref="A2" r:id="rId2"/>
-    <hyperlink ref="A3" r:id="rId3"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:D6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="68.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" t="s">
-        <v>231</v>
-      </c>
-      <c r="D1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C2" t="s">
-        <v>234</v>
-      </c>
-      <c r="D2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C3" t="s">
-        <v>232</v>
-      </c>
-      <c r="D3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B4" t="s">
-        <v>181</v>
-      </c>
-      <c r="C4" t="s">
-        <v>232</v>
-      </c>
-      <c r="D4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="B5" t="s">
-        <v>230</v>
-      </c>
-      <c r="C5" t="s">
-        <v>233</v>
-      </c>
-      <c r="D5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B6" t="s">
-        <v>236</v>
-      </c>
-      <c r="C6" t="s">
-        <v>237</v>
-      </c>
-      <c r="D6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
-    <hyperlink ref="A2" r:id="rId2"/>
-    <hyperlink ref="A3" r:id="rId3"/>
-    <hyperlink ref="A4" r:id="rId4"/>
-    <hyperlink ref="A5" r:id="rId5"/>
-    <hyperlink ref="A6" r:id="rId6"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="66" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C1" t="s">
-        <v>232</v>
-      </c>
-      <c r="D1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C2" t="s">
-        <v>232</v>
-      </c>
-      <c r="D2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B3" t="s">
-        <v>230</v>
-      </c>
-      <c r="C3" t="s">
-        <v>233</v>
-      </c>
-      <c r="D3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
-    <hyperlink ref="A2" r:id="rId2"/>
-    <hyperlink ref="A3" r:id="rId3"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="65.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" t="s">
-        <v>231</v>
-      </c>
-      <c r="D1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C2" t="s">
-        <v>234</v>
-      </c>
-      <c r="D2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C3" t="s">
-        <v>232</v>
-      </c>
-      <c r="D3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B4" t="s">
-        <v>181</v>
-      </c>
-      <c r="C4" t="s">
-        <v>232</v>
-      </c>
-      <c r="D4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B5" t="s">
-        <v>230</v>
-      </c>
-      <c r="C5" t="s">
-        <v>233</v>
-      </c>
-      <c r="D5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="B6" t="s">
-        <v>236</v>
-      </c>
-      <c r="C6" t="s">
-        <v>237</v>
-      </c>
-      <c r="D6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2"/>
-    <hyperlink ref="A4" r:id="rId3"/>
-    <hyperlink ref="A5" r:id="rId4"/>
-    <hyperlink ref="A6" r:id="rId5"/>
-    <hyperlink ref="A1" r:id="rId6"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:D6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="70.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" t="s">
-        <v>231</v>
-      </c>
-      <c r="D1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C2" t="s">
-        <v>234</v>
-      </c>
-      <c r="D2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C3" t="s">
-        <v>232</v>
-      </c>
-      <c r="D3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B4" t="s">
-        <v>181</v>
-      </c>
-      <c r="C4" t="s">
-        <v>232</v>
-      </c>
-      <c r="D4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="B5" t="s">
-        <v>230</v>
-      </c>
-      <c r="C5" t="s">
-        <v>233</v>
-      </c>
-      <c r="D5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="B6" t="s">
-        <v>236</v>
-      </c>
-      <c r="C6" t="s">
-        <v>237</v>
-      </c>
-      <c r="D6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
-    <hyperlink ref="A2" r:id="rId2"/>
-    <hyperlink ref="A3" r:id="rId3"/>
-    <hyperlink ref="A4" r:id="rId4"/>
-    <hyperlink ref="A5" r:id="rId5"/>
-    <hyperlink ref="A6" r:id="rId6"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:D6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6135,80 +5448,66 @@
         <v>40</v>
       </c>
       <c r="C1" t="s">
-        <v>231</v>
+        <v>192</v>
       </c>
       <c r="D1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>49</v>
+      <c r="A2" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C2" t="s">
-        <v>234</v>
+        <v>193</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B3" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="C3" t="s">
-        <v>232</v>
+        <v>193</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="B4" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="C4" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
       <c r="D4" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="B5" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C5" t="s">
-        <v>233</v>
+        <v>198</v>
       </c>
       <c r="D5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="B6" t="s">
-        <v>236</v>
-      </c>
-      <c r="C6" t="s">
-        <v>237</v>
-      </c>
-      <c r="D6" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -6218,7 +5517,6 @@
     <hyperlink ref="A3" r:id="rId3"/>
     <hyperlink ref="A4" r:id="rId4"/>
     <hyperlink ref="A5" r:id="rId5"/>
-    <hyperlink ref="A6" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
